--- a/RPA/creators/resources/template.xlsx
+++ b/RPA/creators/resources/template.xlsx
@@ -19,19 +19,19 @@
     <t>INVOICE</t>
   </si>
   <si>
-    <t>346.68€</t>
-  </si>
-  <si>
-    <t>344.52€</t>
+    <t>200.52€</t>
+  </si>
+  <si>
+    <t>198.36€</t>
   </si>
   <si>
     <t>20%</t>
   </si>
   <si>
-    <t>68.9€</t>
-  </si>
-  <si>
-    <t>415.58€</t>
+    <t>39.67€</t>
+  </si>
+  <si>
+    <t>240.19€</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal: </t>
@@ -76,14 +76,14 @@
     <t>Address:</t>
   </si>
   <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
-    <t>613 Moyer Square Suite 812
-Mcculloughborough, GA 17699</t>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>10072 Sergio Ports Apt. 447
+East Ericaburgh, WY 85376</t>
   </si>
   <si>
     <t>Date:</t>
@@ -101,10 +101,10 @@
     <t>2020-02-10</t>
   </si>
   <si>
-    <t>2020405733</t>
-  </si>
-  <si>
-    <t>16416</t>
+    <t>2020915945</t>
+  </si>
+  <si>
+    <t>735613</t>
   </si>
   <si>
     <t>2020-02-24</t>
@@ -691,10 +691,10 @@
         <v>0.18</v>
       </c>
       <c r="D19">
-        <v>1914</v>
+        <v>1102</v>
       </c>
       <c r="E19">
-        <v>344.52</v>
+        <v>198.36</v>
       </c>
     </row>
     <row r="20" spans="1:5">

--- a/RPA/creators/resources/template.xlsx
+++ b/RPA/creators/resources/template.xlsx
@@ -19,19 +19,19 @@
     <t>INVOICE</t>
   </si>
   <si>
-    <t>200.52€</t>
-  </si>
-  <si>
-    <t>198.36€</t>
+    <t>25.44€</t>
+  </si>
+  <si>
+    <t>24.0€</t>
   </si>
   <si>
     <t>20%</t>
   </si>
   <si>
-    <t>39.67€</t>
-  </si>
-  <si>
-    <t>240.19€</t>
+    <t>4.8€</t>
+  </si>
+  <si>
+    <t>30.24€</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal: </t>
@@ -76,14 +76,13 @@
     <t>Address:</t>
   </si>
   <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Blood</t>
-  </si>
-  <si>
-    <t>10072 Sergio Ports Apt. 447
-East Ericaburgh, WY 85376</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>asad</t>
+  </si>
+  <si>
+    <t>12 Važecka,</t>
   </si>
   <si>
     <t>Date:</t>
@@ -98,16 +97,16 @@
     <t>Due date:</t>
   </si>
   <si>
-    <t>2020-02-10</t>
-  </si>
-  <si>
-    <t>2020915945</t>
-  </si>
-  <si>
-    <t>735613</t>
-  </si>
-  <si>
-    <t>2020-02-24</t>
+    <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>2020404981</t>
+  </si>
+  <si>
+    <t>514296</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
   </si>
   <si>
     <t>Product</t>
@@ -685,16 +684,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D19">
-        <v>1102</v>
+        <v>200</v>
       </c>
       <c r="E19">
-        <v>198.36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -705,13 +704,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.16</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/RPA/creators/resources/template.xlsx
+++ b/RPA/creators/resources/template.xlsx
@@ -19,19 +19,19 @@
     <t>INVOICE</t>
   </si>
   <si>
-    <t>22.4€</t>
-  </si>
-  <si>
-    <t>20.0€</t>
+    <t>87.52€</t>
+  </si>
+  <si>
+    <t>85.6€</t>
   </si>
   <si>
     <t>20%</t>
   </si>
   <si>
-    <t>4.0€</t>
-  </si>
-  <si>
-    <t>26.4€</t>
+    <t>17.12€</t>
+  </si>
+  <si>
+    <t>104.64€</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal: </t>
@@ -76,13 +76,13 @@
     <t>Address:</t>
   </si>
   <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>kuci</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Syrovatka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Važecka, </t>
   </si>
   <si>
     <t>Date:</t>
@@ -100,10 +100,10 @@
     <t>2020-02-12</t>
   </si>
   <si>
-    <t>2020439015</t>
-  </si>
-  <si>
-    <t>sx2020</t>
+    <t>2020828576</t>
+  </si>
+  <si>
+    <t>sx839948</t>
   </si>
   <si>
     <t>2020-02-26</t>
@@ -684,16 +684,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>535</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>85.60000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -704,13 +704,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/RPA/creators/resources/template.xlsx
+++ b/RPA/creators/resources/template.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="sx16968152" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,19 +19,19 @@
     <t>INVOICE</t>
   </si>
   <si>
-    <t>244.26€</t>
-  </si>
-  <si>
-    <t>242.1€</t>
+    <t>264.46€</t>
+  </si>
+  <si>
+    <t>262.78€</t>
   </si>
   <si>
     <t>20%</t>
   </si>
   <si>
-    <t>48.42€</t>
-  </si>
-  <si>
-    <t>292.68€</t>
+    <t>52.56€</t>
+  </si>
+  <si>
+    <t>317.02€</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal: </t>
@@ -76,14 +76,14 @@
     <t>Address:</t>
   </si>
   <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>959 Gates Spur
-Michaelfort, HI 18272</t>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Hood</t>
+  </si>
+  <si>
+    <t>1968 Caldwell Fords
+South Tiffany, HI 50323</t>
   </si>
   <si>
     <t>Date:</t>
@@ -98,16 +98,16 @@
     <t>Due date:</t>
   </si>
   <si>
-    <t>2020-02-13</t>
-  </si>
-  <si>
-    <t>2020178026</t>
-  </si>
-  <si>
-    <t>sx16202031</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
+    <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>2020298227</t>
+  </si>
+  <si>
+    <t>sx16968152</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
   </si>
   <si>
     <t>Product</t>
@@ -685,16 +685,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="D19">
-        <v>1345</v>
+        <v>1877</v>
       </c>
       <c r="E19">
-        <v>242.1</v>
+        <v>262.78</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -705,13 +705,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/RPA/creators/resources/template.xlsx
+++ b/RPA/creators/resources/template.xlsx
@@ -7,31 +7,40 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sx16968152" sheetId="1" r:id="rId1"/>
+    <sheet name="sx16529991" sheetId="1" r:id="rId1"/>
+    <sheet name="sx16122992" sheetId="2" r:id="rId2"/>
+    <sheet name="sx16223205" sheetId="3" r:id="rId3"/>
+    <sheet name="sx1672428" sheetId="4" r:id="rId4"/>
+    <sheet name="sx16688012" sheetId="5" r:id="rId5"/>
+    <sheet name="sx16678366" sheetId="6" r:id="rId6"/>
+    <sheet name="sx16762754" sheetId="7" r:id="rId7"/>
+    <sheet name="sx16754962" sheetId="8" r:id="rId8"/>
+    <sheet name="sx16899584" sheetId="9" r:id="rId9"/>
+    <sheet name="sx16491794" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="120">
   <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t>264.46€</t>
-  </si>
-  <si>
-    <t>262.78€</t>
+    <t>305.28€</t>
+  </si>
+  <si>
+    <t>303.12€</t>
   </si>
   <si>
     <t>20%</t>
   </si>
   <si>
-    <t>52.56€</t>
-  </si>
-  <si>
-    <t>317.02€</t>
+    <t>60.62€</t>
+  </si>
+  <si>
+    <t>365.9€</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal: </t>
@@ -76,14 +85,14 @@
     <t>Address:</t>
   </si>
   <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Hood</t>
-  </si>
-  <si>
-    <t>1968 Caldwell Fords
-South Tiffany, HI 50323</t>
+    <t>Leroy</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>5234 Scott Well
+East Michelle, AR 75613</t>
   </si>
   <si>
     <t>Date:</t>
@@ -98,16 +107,16 @@
     <t>Due date:</t>
   </si>
   <si>
-    <t>2020-02-14</t>
-  </si>
-  <si>
-    <t>2020298227</t>
-  </si>
-  <si>
-    <t>sx16968152</t>
-  </si>
-  <si>
-    <t>2020-02-28</t>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020414772</t>
+  </si>
+  <si>
+    <t>sx16529991</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
   </si>
   <si>
     <t>Product</t>
@@ -132,6 +141,258 @@
   </si>
   <si>
     <t>2. Please include the invoice number on your check</t>
+  </si>
+  <si>
+    <t>138.36€</t>
+  </si>
+  <si>
+    <t>136.92€</t>
+  </si>
+  <si>
+    <t>27.38€</t>
+  </si>
+  <si>
+    <t>165.74€</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Kesterson</t>
+  </si>
+  <si>
+    <t>348 Vincent Branch
+Nguyenview, ME 29182</t>
+  </si>
+  <si>
+    <t>2020891555</t>
+  </si>
+  <si>
+    <t>sx16122992</t>
+  </si>
+  <si>
+    <t>96.66€</t>
+  </si>
+  <si>
+    <t>94.5€</t>
+  </si>
+  <si>
+    <t>18.9€</t>
+  </si>
+  <si>
+    <t>115.56€</t>
+  </si>
+  <si>
+    <t>Meridith</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>200 Costa View
+Port Brandon, OR 62488</t>
+  </si>
+  <si>
+    <t>2020346398</t>
+  </si>
+  <si>
+    <t>sx16223205</t>
+  </si>
+  <si>
+    <t>340.74€</t>
+  </si>
+  <si>
+    <t>338.58€</t>
+  </si>
+  <si>
+    <t>67.72€</t>
+  </si>
+  <si>
+    <t>408.46€</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Simms</t>
+  </si>
+  <si>
+    <t>6362 Jasmine Circles Suite 376
+North Anthony, IA 91893</t>
+  </si>
+  <si>
+    <t>2020640302</t>
+  </si>
+  <si>
+    <t>sx1672428</t>
+  </si>
+  <si>
+    <t>92.26€</t>
+  </si>
+  <si>
+    <t>90.58€</t>
+  </si>
+  <si>
+    <t>18.12€</t>
+  </si>
+  <si>
+    <t>110.38€</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Geiger</t>
+  </si>
+  <si>
+    <t>844 Sanchez Park Suite 736
+South Samueltown, HI 21763</t>
+  </si>
+  <si>
+    <t>2020287268</t>
+  </si>
+  <si>
+    <t>sx16688012</t>
+  </si>
+  <si>
+    <t>164.34€</t>
+  </si>
+  <si>
+    <t>162.18€</t>
+  </si>
+  <si>
+    <t>32.44€</t>
+  </si>
+  <si>
+    <t>196.78€</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Galizia</t>
+  </si>
+  <si>
+    <t>185 Cortez Hollow Apt. 999
+South Jacobview, MD 04582</t>
+  </si>
+  <si>
+    <t>2020823433</t>
+  </si>
+  <si>
+    <t>sx16678366</t>
+  </si>
+  <si>
+    <t>54.24€</t>
+  </si>
+  <si>
+    <t>52.32€</t>
+  </si>
+  <si>
+    <t>10.46€</t>
+  </si>
+  <si>
+    <t>64.7€</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Bedolla</t>
+  </si>
+  <si>
+    <t>386 Jennifer Mills
+West Tamara, SC 34290</t>
+  </si>
+  <si>
+    <t>2020354345</t>
+  </si>
+  <si>
+    <t>sx16762754</t>
+  </si>
+  <si>
+    <t>207.36€</t>
+  </si>
+  <si>
+    <t>205.44€</t>
+  </si>
+  <si>
+    <t>41.09€</t>
+  </si>
+  <si>
+    <t>248.45€</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Hansen</t>
+  </si>
+  <si>
+    <t>88031 Mcconnell Passage Apt. 341
+New Lindaburgh, WY 14495</t>
+  </si>
+  <si>
+    <t>2020760573</t>
+  </si>
+  <si>
+    <t>sx16754962</t>
+  </si>
+  <si>
+    <t>49.84€</t>
+  </si>
+  <si>
+    <t>48.16€</t>
+  </si>
+  <si>
+    <t>9.63€</t>
+  </si>
+  <si>
+    <t>59.47€</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>Pohl</t>
+  </si>
+  <si>
+    <t>44896 Matthew Heights Suite 251
+West Barbara, NC 02816</t>
+  </si>
+  <si>
+    <t>2020196912</t>
+  </si>
+  <si>
+    <t>sx16899584</t>
+  </si>
+  <si>
+    <t>298.88€</t>
+  </si>
+  <si>
+    <t>296.96€</t>
+  </si>
+  <si>
+    <t>59.39€</t>
+  </si>
+  <si>
+    <t>358.27€</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Connelly</t>
+  </si>
+  <si>
+    <t>44560 Deborah Ramp Suite 003
+New Kim, ND 71892</t>
+  </si>
+  <si>
+    <t>2020993161</t>
+  </si>
+  <si>
+    <t>sx16491794</t>
   </si>
 </sst>
 </file>
@@ -265,8 +526,755 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A18:E20" totalsRowShown="0">
   <autoFilter ref="A18:E20"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Product"/>
@@ -685,16 +1693,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="D19">
-        <v>1877</v>
+        <v>1684</v>
       </c>
       <c r="E19">
-        <v>262.78</v>
+        <v>303.12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -705,13 +1713,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -752,6 +1760,1986 @@
       </c>
       <c r="E25" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.16</v>
+      </c>
+      <c r="D19">
+        <v>1856</v>
+      </c>
+      <c r="E19">
+        <v>296.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.16</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>1141</v>
+      </c>
+      <c r="E19">
+        <v>136.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>525</v>
+      </c>
+      <c r="E19">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>1881</v>
+      </c>
+      <c r="E19">
+        <v>338.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.14</v>
+      </c>
+      <c r="D19">
+        <v>647</v>
+      </c>
+      <c r="E19">
+        <v>90.58000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.14</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>901</v>
+      </c>
+      <c r="E19">
+        <v>162.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.16</v>
+      </c>
+      <c r="D19">
+        <v>327</v>
+      </c>
+      <c r="E19">
+        <v>52.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.16</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.16</v>
+      </c>
+      <c r="D19">
+        <v>1284</v>
+      </c>
+      <c r="E19">
+        <v>205.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.16</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.14</v>
+      </c>
+      <c r="D19">
+        <v>344</v>
+      </c>
+      <c r="E19">
+        <v>48.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.14</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3">

--- a/RPA/creators/resources/template.xlsx
+++ b/RPA/creators/resources/template.xlsx
@@ -7,40 +7,55 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sx16529991" sheetId="1" r:id="rId1"/>
-    <sheet name="sx16122992" sheetId="2" r:id="rId2"/>
-    <sheet name="sx16223205" sheetId="3" r:id="rId3"/>
-    <sheet name="sx1672428" sheetId="4" r:id="rId4"/>
-    <sheet name="sx16688012" sheetId="5" r:id="rId5"/>
-    <sheet name="sx16678366" sheetId="6" r:id="rId6"/>
-    <sheet name="sx16762754" sheetId="7" r:id="rId7"/>
-    <sheet name="sx16754962" sheetId="8" r:id="rId8"/>
-    <sheet name="sx16899584" sheetId="9" r:id="rId9"/>
-    <sheet name="sx16491794" sheetId="10" r:id="rId10"/>
+    <sheet name="sx5987" sheetId="1" r:id="rId1"/>
+    <sheet name="sx675471" sheetId="2" r:id="rId2"/>
+    <sheet name="sx330354" sheetId="3" r:id="rId3"/>
+    <sheet name="sx451075" sheetId="4" r:id="rId4"/>
+    <sheet name="sx487422" sheetId="5" r:id="rId5"/>
+    <sheet name="sx493503" sheetId="6" r:id="rId6"/>
+    <sheet name="sx661950" sheetId="7" r:id="rId7"/>
+    <sheet name="sx994877" sheetId="8" r:id="rId8"/>
+    <sheet name="sx717349" sheetId="9" r:id="rId9"/>
+    <sheet name="sx674918" sheetId="10" r:id="rId10"/>
+    <sheet name="sx421196" sheetId="11" r:id="rId11"/>
+    <sheet name="sx489444" sheetId="12" r:id="rId12"/>
+    <sheet name="sx704985" sheetId="13" r:id="rId13"/>
+    <sheet name="sx273340" sheetId="14" r:id="rId14"/>
+    <sheet name="sx32865" sheetId="15" r:id="rId15"/>
+    <sheet name="sx200517" sheetId="16" r:id="rId16"/>
+    <sheet name="sx262463" sheetId="17" r:id="rId17"/>
+    <sheet name="sx246818" sheetId="18" r:id="rId18"/>
+    <sheet name="sx154560" sheetId="19" r:id="rId19"/>
+    <sheet name="sx253969" sheetId="20" r:id="rId20"/>
+    <sheet name="sx348973" sheetId="21" r:id="rId21"/>
+    <sheet name="sx320241" sheetId="22" r:id="rId22"/>
+    <sheet name="sx723437" sheetId="23" r:id="rId23"/>
+    <sheet name="sx988897" sheetId="24" r:id="rId24"/>
+    <sheet name="sx337289" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="255">
   <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t>305.28€</t>
-  </si>
-  <si>
-    <t>303.12€</t>
+    <t>178.88€</t>
+  </si>
+  <si>
+    <t>176.96€</t>
   </si>
   <si>
     <t>20%</t>
   </si>
   <si>
-    <t>60.62€</t>
-  </si>
-  <si>
-    <t>365.9€</t>
+    <t>35.39€</t>
+  </si>
+  <si>
+    <t>214.27€</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal: </t>
@@ -85,314 +100,709 @@
     <t>Address:</t>
   </si>
   <si>
+    <t>Vesta</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>74991 Paul Stream Apt. 017Stoutchester, DE 52495</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Invoice no.:</t>
+  </si>
+  <si>
+    <t>Customer ID:</t>
+  </si>
+  <si>
+    <t>Due date:</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>202045422</t>
+  </si>
+  <si>
+    <t>sx5987</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Tariff</t>
+  </si>
+  <si>
+    <t>Price kw/h</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>1. Total payment due in 14 days</t>
+  </si>
+  <si>
+    <t>2. Please include the invoice number on your check</t>
+  </si>
+  <si>
+    <t>93.96€</t>
+  </si>
+  <si>
+    <t>92.52€</t>
+  </si>
+  <si>
+    <t>18.5€</t>
+  </si>
+  <si>
+    <t>112.46€</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Carwile</t>
+  </si>
+  <si>
+    <t>4752 Torres Via Suite 119New Christopher, DE 27898</t>
+  </si>
+  <si>
+    <t>2020495877</t>
+  </si>
+  <si>
+    <t>sx675471</t>
+  </si>
+  <si>
+    <t>72.48€</t>
+  </si>
+  <si>
+    <t>70.56€</t>
+  </si>
+  <si>
+    <t>14.11€</t>
+  </si>
+  <si>
+    <t>86.59€</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>26715 Fitzgerald Falls Apt. 684Lake Courtney, IL 35941</t>
+  </si>
+  <si>
+    <t>2020855164</t>
+  </si>
+  <si>
+    <t>sx330354</t>
+  </si>
+  <si>
+    <t>258.16€</t>
+  </si>
+  <si>
+    <t>256.48€</t>
+  </si>
+  <si>
+    <t>51.3€</t>
+  </si>
+  <si>
+    <t>309.46€</t>
+  </si>
+  <si>
+    <t>Rufus</t>
+  </si>
+  <si>
+    <t>Nappi</t>
+  </si>
+  <si>
+    <t>3592 Waters GreenLarsontown, UT 70758</t>
+  </si>
+  <si>
+    <t>2020798858</t>
+  </si>
+  <si>
+    <t>sx451075</t>
+  </si>
+  <si>
+    <t>105.84€</t>
+  </si>
+  <si>
+    <t>104.16€</t>
+  </si>
+  <si>
+    <t>20.83€</t>
+  </si>
+  <si>
+    <t>126.67€</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Smelley</t>
+  </si>
+  <si>
+    <t>7696 Morrison Fort Suite 090East Kimberly, NM 84451</t>
+  </si>
+  <si>
+    <t>2020337593</t>
+  </si>
+  <si>
+    <t>sx487422</t>
+  </si>
+  <si>
+    <t>30.12€</t>
+  </si>
+  <si>
+    <t>28.68€</t>
+  </si>
+  <si>
+    <t>5.74€</t>
+  </si>
+  <si>
+    <t>35.86€</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Barber</t>
+  </si>
+  <si>
+    <t>Unit 3156 Box 0665DPO AE 51578</t>
+  </si>
+  <si>
+    <t>2020544196</t>
+  </si>
+  <si>
+    <t>sx493503</t>
+  </si>
+  <si>
+    <t>181.44€</t>
+  </si>
+  <si>
+    <t>180.0€</t>
+  </si>
+  <si>
+    <t>36.0€</t>
+  </si>
+  <si>
+    <t>217.44€</t>
+  </si>
+  <si>
+    <t>Vickie</t>
+  </si>
+  <si>
+    <t>Manor</t>
+  </si>
+  <si>
+    <t>59248 Hayley Alley Apt. 343West Danieltown, NM 05797</t>
+  </si>
+  <si>
+    <t>2020436554</t>
+  </si>
+  <si>
+    <t>sx661950</t>
+  </si>
+  <si>
+    <t>70.72€</t>
+  </si>
+  <si>
+    <t>68.8€</t>
+  </si>
+  <si>
+    <t>13.76€</t>
+  </si>
+  <si>
+    <t>84.48€</t>
+  </si>
+  <si>
+    <t>Herminia</t>
+  </si>
+  <si>
+    <t>Contreras</t>
+  </si>
+  <si>
+    <t>632 Rebecca Junction Suite 914Lake Rachelbury, SC 73296</t>
+  </si>
+  <si>
+    <t>2020714408</t>
+  </si>
+  <si>
+    <t>sx994877</t>
+  </si>
+  <si>
+    <t>56.16€</t>
+  </si>
+  <si>
+    <t>54.72€</t>
+  </si>
+  <si>
+    <t>10.94€</t>
+  </si>
+  <si>
+    <t>67.1€</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Renfroe</t>
+  </si>
+  <si>
+    <t>PSC 2161, Box 8598APO AE 04248</t>
+  </si>
+  <si>
+    <t>2020398012</t>
+  </si>
+  <si>
+    <t>sx717349</t>
+  </si>
+  <si>
+    <t>187.92€</t>
+  </si>
+  <si>
+    <t>185.76€</t>
+  </si>
+  <si>
+    <t>37.15€</t>
+  </si>
+  <si>
+    <t>225.07€</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Shuck</t>
+  </si>
+  <si>
+    <t>PSC 0979, Box 6971APO AA 44120</t>
+  </si>
+  <si>
+    <t>2020470011</t>
+  </si>
+  <si>
+    <t>sx674918</t>
+  </si>
+  <si>
+    <t>122.28€</t>
+  </si>
+  <si>
+    <t>120.84€</t>
+  </si>
+  <si>
+    <t>24.17€</t>
+  </si>
+  <si>
+    <t>146.45€</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Landry</t>
+  </si>
+  <si>
+    <t>PSC 0777, Box 3635APO AP 90976</t>
+  </si>
+  <si>
+    <t>202031967</t>
+  </si>
+  <si>
+    <t>sx421196</t>
+  </si>
+  <si>
+    <t>112.42€</t>
+  </si>
+  <si>
+    <t>110.74€</t>
+  </si>
+  <si>
+    <t>22.15€</t>
+  </si>
+  <si>
+    <t>134.57€</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Stephens</t>
+  </si>
+  <si>
+    <t>PSC 3070, Box 1811APO AE 86557</t>
+  </si>
+  <si>
+    <t>2020429694</t>
+  </si>
+  <si>
+    <t>sx489444</t>
+  </si>
+  <si>
+    <t>90.12€</t>
+  </si>
+  <si>
+    <t>88.68€</t>
+  </si>
+  <si>
+    <t>17.74€</t>
+  </si>
+  <si>
+    <t>107.86€</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Mcwhorter</t>
+  </si>
+  <si>
+    <t>20171 Savage MallLake Charlesborough, MI 51441</t>
+  </si>
+  <si>
+    <t>2020133397</t>
+  </si>
+  <si>
+    <t>sx704985</t>
+  </si>
+  <si>
+    <t>337.6€</t>
+  </si>
+  <si>
+    <t>335.2€</t>
+  </si>
+  <si>
+    <t>67.04€</t>
+  </si>
+  <si>
+    <t>404.64€</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Busch</t>
+  </si>
+  <si>
+    <t>41873 Emma CapeLake Alanfurt, AZ 43073</t>
+  </si>
+  <si>
+    <t>2020255812</t>
+  </si>
+  <si>
+    <t>sx273340</t>
+  </si>
+  <si>
+    <t>50.64€</t>
+  </si>
+  <si>
+    <t>49.2€</t>
+  </si>
+  <si>
+    <t>9.84€</t>
+  </si>
+  <si>
+    <t>60.48€</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Lachance</t>
+  </si>
+  <si>
+    <t>8556 Shelton JunctionLake Deanna, CT 79848</t>
+  </si>
+  <si>
+    <t>2020387876</t>
+  </si>
+  <si>
+    <t>sx32865</t>
+  </si>
+  <si>
+    <t>172.8€</t>
+  </si>
+  <si>
+    <t>170.64€</t>
+  </si>
+  <si>
+    <t>34.13€</t>
+  </si>
+  <si>
+    <t>206.93€</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Shyne</t>
+  </si>
+  <si>
+    <t>0979 Savannah Camp Apt. 688Masonhaven, TN 18746</t>
+  </si>
+  <si>
+    <t>2020977593</t>
+  </si>
+  <si>
+    <t>sx200517</t>
+  </si>
+  <si>
+    <t>388.6€</t>
+  </si>
+  <si>
+    <t>386.2€</t>
+  </si>
+  <si>
+    <t>77.24€</t>
+  </si>
+  <si>
+    <t>465.84€</t>
+  </si>
+  <si>
+    <t>Jermaine</t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>635 Stephanie Mills Suite 244Port Ashley, IA 37345</t>
+  </si>
+  <si>
+    <t>2020817185</t>
+  </si>
+  <si>
+    <t>sx262463</t>
+  </si>
+  <si>
+    <t>168.0€</t>
+  </si>
+  <si>
+    <t>166.56€</t>
+  </si>
+  <si>
+    <t>33.31€</t>
+  </si>
+  <si>
+    <t>201.31€</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>32706 Johnson LandingNorth Cherylport, VA 11386</t>
+  </si>
+  <si>
+    <t>202074249</t>
+  </si>
+  <si>
+    <t>sx246818</t>
+  </si>
+  <si>
+    <t>248.76€</t>
+  </si>
+  <si>
+    <t>246.6€</t>
+  </si>
+  <si>
+    <t>49.32€</t>
+  </si>
+  <si>
+    <t>298.08€</t>
+  </si>
+  <si>
+    <t>Elton</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>3657 Smith Spurs Apt. 500Stevenfort, NJ 55316</t>
+  </si>
+  <si>
+    <t>2020677635</t>
+  </si>
+  <si>
+    <t>sx154560</t>
+  </si>
+  <si>
+    <t>231.36€</t>
+  </si>
+  <si>
+    <t>229.92€</t>
+  </si>
+  <si>
+    <t>45.98€</t>
+  </si>
+  <si>
+    <t>277.34€</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>194 Foley CenterSouth Anthony, KS 96478</t>
+  </si>
+  <si>
+    <t>2020388204</t>
+  </si>
+  <si>
+    <t>sx253969</t>
+  </si>
+  <si>
+    <t>66.4€</t>
+  </si>
+  <si>
+    <t>64.0€</t>
+  </si>
+  <si>
+    <t>12.8€</t>
+  </si>
+  <si>
+    <t>79.2€</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>559 Sanford Junctions Apt. 884Port Mark, LA 85698</t>
+  </si>
+  <si>
+    <t>2020666819</t>
+  </si>
+  <si>
+    <t>sx348973</t>
+  </si>
+  <si>
+    <t>179.62€</t>
+  </si>
+  <si>
+    <t>177.94€</t>
+  </si>
+  <si>
+    <t>35.59€</t>
+  </si>
+  <si>
+    <t>215.21€</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>28756 Martin CrestRosaleshaven, NC 54286</t>
+  </si>
+  <si>
+    <t>2020428419</t>
+  </si>
+  <si>
+    <t>sx320241</t>
+  </si>
+  <si>
+    <t>170.66€</t>
+  </si>
+  <si>
+    <t>168.98€</t>
+  </si>
+  <si>
+    <t>33.8€</t>
+  </si>
+  <si>
+    <t>204.46€</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Millet</t>
+  </si>
+  <si>
+    <t>155 Huber Heights Apt. 134North Jasmineside, OR 16248</t>
+  </si>
+  <si>
+    <t>2020423959</t>
+  </si>
+  <si>
+    <t>sx723437</t>
+  </si>
+  <si>
+    <t>111.24€</t>
+  </si>
+  <si>
+    <t>109.08€</t>
+  </si>
+  <si>
+    <t>21.82€</t>
+  </si>
+  <si>
+    <t>133.06€</t>
+  </si>
+  <si>
     <t>Leroy</t>
   </si>
   <si>
-    <t>Harvey</t>
-  </si>
-  <si>
-    <t>5234 Scott Well
-East Michelle, AR 75613</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Invoice no.:</t>
-  </si>
-  <si>
-    <t>Customer ID:</t>
-  </si>
-  <si>
-    <t>Due date:</t>
-  </si>
-  <si>
-    <t>2020-02-17</t>
-  </si>
-  <si>
-    <t>2020414772</t>
-  </si>
-  <si>
-    <t>sx16529991</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Tariff</t>
-  </si>
-  <si>
-    <t>Price kw/h</t>
-  </si>
-  <si>
-    <t>Consumption</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>1. Total payment due in 14 days</t>
-  </si>
-  <si>
-    <t>2. Please include the invoice number on your check</t>
-  </si>
-  <si>
-    <t>138.36€</t>
-  </si>
-  <si>
-    <t>136.92€</t>
-  </si>
-  <si>
-    <t>27.38€</t>
-  </si>
-  <si>
-    <t>165.74€</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Kesterson</t>
-  </si>
-  <si>
-    <t>348 Vincent Branch
-Nguyenview, ME 29182</t>
-  </si>
-  <si>
-    <t>2020891555</t>
-  </si>
-  <si>
-    <t>sx16122992</t>
-  </si>
-  <si>
-    <t>96.66€</t>
-  </si>
-  <si>
-    <t>94.5€</t>
-  </si>
-  <si>
-    <t>18.9€</t>
-  </si>
-  <si>
-    <t>115.56€</t>
-  </si>
-  <si>
-    <t>Meridith</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>200 Costa View
-Port Brandon, OR 62488</t>
-  </si>
-  <si>
-    <t>2020346398</t>
-  </si>
-  <si>
-    <t>sx16223205</t>
-  </si>
-  <si>
-    <t>340.74€</t>
-  </si>
-  <si>
-    <t>338.58€</t>
-  </si>
-  <si>
-    <t>67.72€</t>
-  </si>
-  <si>
-    <t>408.46€</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Simms</t>
-  </si>
-  <si>
-    <t>6362 Jasmine Circles Suite 376
-North Anthony, IA 91893</t>
-  </si>
-  <si>
-    <t>2020640302</t>
-  </si>
-  <si>
-    <t>sx1672428</t>
-  </si>
-  <si>
-    <t>92.26€</t>
-  </si>
-  <si>
-    <t>90.58€</t>
-  </si>
-  <si>
-    <t>18.12€</t>
-  </si>
-  <si>
-    <t>110.38€</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Geiger</t>
-  </si>
-  <si>
-    <t>844 Sanchez Park Suite 736
-South Samueltown, HI 21763</t>
-  </si>
-  <si>
-    <t>2020287268</t>
-  </si>
-  <si>
-    <t>sx16688012</t>
-  </si>
-  <si>
-    <t>164.34€</t>
-  </si>
-  <si>
-    <t>162.18€</t>
-  </si>
-  <si>
-    <t>32.44€</t>
-  </si>
-  <si>
-    <t>196.78€</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>Galizia</t>
-  </si>
-  <si>
-    <t>185 Cortez Hollow Apt. 999
-South Jacobview, MD 04582</t>
-  </si>
-  <si>
-    <t>2020823433</t>
-  </si>
-  <si>
-    <t>sx16678366</t>
-  </si>
-  <si>
-    <t>54.24€</t>
-  </si>
-  <si>
-    <t>52.32€</t>
-  </si>
-  <si>
-    <t>10.46€</t>
-  </si>
-  <si>
-    <t>64.7€</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Bedolla</t>
-  </si>
-  <si>
-    <t>386 Jennifer Mills
-West Tamara, SC 34290</t>
-  </si>
-  <si>
-    <t>2020354345</t>
-  </si>
-  <si>
-    <t>sx16762754</t>
-  </si>
-  <si>
-    <t>207.36€</t>
-  </si>
-  <si>
-    <t>205.44€</t>
-  </si>
-  <si>
-    <t>41.09€</t>
-  </si>
-  <si>
-    <t>248.45€</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Hansen</t>
-  </si>
-  <si>
-    <t>88031 Mcconnell Passage Apt. 341
-New Lindaburgh, WY 14495</t>
-  </si>
-  <si>
-    <t>2020760573</t>
-  </si>
-  <si>
-    <t>sx16754962</t>
-  </si>
-  <si>
-    <t>49.84€</t>
-  </si>
-  <si>
-    <t>48.16€</t>
-  </si>
-  <si>
-    <t>9.63€</t>
-  </si>
-  <si>
-    <t>59.47€</t>
-  </si>
-  <si>
-    <t>Alyssa</t>
-  </si>
-  <si>
-    <t>Pohl</t>
-  </si>
-  <si>
-    <t>44896 Matthew Heights Suite 251
-West Barbara, NC 02816</t>
-  </si>
-  <si>
-    <t>2020196912</t>
-  </si>
-  <si>
-    <t>sx16899584</t>
-  </si>
-  <si>
-    <t>298.88€</t>
-  </si>
-  <si>
-    <t>296.96€</t>
-  </si>
-  <si>
-    <t>59.39€</t>
-  </si>
-  <si>
-    <t>358.27€</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>Connelly</t>
-  </si>
-  <si>
-    <t>44560 Deborah Ramp Suite 003
-New Kim, ND 71892</t>
-  </si>
-  <si>
-    <t>2020993161</t>
-  </si>
-  <si>
-    <t>sx16491794</t>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>04027 Jennifer CentersNew Christopher, DC 03312</t>
+  </si>
+  <si>
+    <t>2020843073</t>
+  </si>
+  <si>
+    <t>sx988897</t>
+  </si>
+  <si>
+    <t>125.04€</t>
+  </si>
+  <si>
+    <t>123.6€</t>
+  </si>
+  <si>
+    <t>24.72€</t>
+  </si>
+  <si>
+    <t>149.76€</t>
+  </si>
+  <si>
+    <t>Brittany</t>
+  </si>
+  <si>
+    <t>Dempsey</t>
+  </si>
+  <si>
+    <t>678 Wilson SummitKarentown, NC 63953</t>
+  </si>
+  <si>
+    <t>202015930</t>
+  </si>
+  <si>
+    <t>sx337289</t>
   </si>
 </sst>
 </file>
@@ -595,7 +1005,1042 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1175,8 +2620,218 @@
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table25" displayName="Table25" ref="A18:E20" totalsRowShown="0">
   <autoFilter ref="A18:E20"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Product"/>
@@ -1693,16 +3348,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D19">
-        <v>1684</v>
+        <v>1106</v>
       </c>
       <c r="E19">
-        <v>303.12</v>
+        <v>176.96</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1713,13 +3368,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1913,16 +3568,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="D19">
-        <v>1856</v>
+        <v>1032</v>
       </c>
       <c r="E19">
-        <v>296.96</v>
+        <v>185.76</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1933,13 +3588,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1980,6 +3635,1986 @@
       </c>
       <c r="E25" s="3" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>1007</v>
+      </c>
+      <c r="E19">
+        <v>120.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.14</v>
+      </c>
+      <c r="D19">
+        <v>791</v>
+      </c>
+      <c r="E19">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.14</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>739</v>
+      </c>
+      <c r="E19">
+        <v>88.67999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>1676</v>
+      </c>
+      <c r="E19">
+        <v>335.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>410</v>
+      </c>
+      <c r="E19">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>948</v>
+      </c>
+      <c r="E19">
+        <v>170.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>1931</v>
+      </c>
+      <c r="E19">
+        <v>386.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>1388</v>
+      </c>
+      <c r="E19">
+        <v>166.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>1370</v>
+      </c>
+      <c r="E19">
+        <v>246.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2139,10 +5774,10 @@
         <v>0.12</v>
       </c>
       <c r="D19">
-        <v>1141</v>
+        <v>771</v>
       </c>
       <c r="E19">
-        <v>136.92</v>
+        <v>92.52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2200,6 +5835,1326 @@
       </c>
       <c r="E25" s="3" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>1916</v>
+      </c>
+      <c r="E19">
+        <v>229.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>320</v>
+      </c>
+      <c r="E19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.14</v>
+      </c>
+      <c r="D19">
+        <v>1271</v>
+      </c>
+      <c r="E19">
+        <v>177.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.14</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.14</v>
+      </c>
+      <c r="D19">
+        <v>1207</v>
+      </c>
+      <c r="E19">
+        <v>168.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.14</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>606</v>
+      </c>
+      <c r="E19">
+        <v>109.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>1030</v>
+      </c>
+      <c r="E19">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2353,16 +7308,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D19">
-        <v>525</v>
+        <v>441</v>
       </c>
       <c r="E19">
-        <v>94.5</v>
+        <v>70.56</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2373,13 +7328,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2573,16 +7528,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="D19">
-        <v>1881</v>
+        <v>1832</v>
       </c>
       <c r="E19">
-        <v>338.58</v>
+        <v>256.48</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2593,13 +7548,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2799,10 +7754,10 @@
         <v>0.14</v>
       </c>
       <c r="D19">
-        <v>647</v>
+        <v>744</v>
       </c>
       <c r="E19">
-        <v>90.58000000000001</v>
+        <v>104.16</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3013,16 +7968,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D19">
-        <v>901</v>
+        <v>239</v>
       </c>
       <c r="E19">
-        <v>162.18</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3033,13 +7988,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.16</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3233,16 +8188,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D19">
-        <v>327</v>
+        <v>1500</v>
       </c>
       <c r="E19">
-        <v>52.32</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3253,13 +8208,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.92</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3459,10 +8414,10 @@
         <v>0.16</v>
       </c>
       <c r="D19">
-        <v>1284</v>
+        <v>430</v>
       </c>
       <c r="E19">
-        <v>205.44</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3673,16 +8628,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D19">
-        <v>344</v>
+        <v>456</v>
       </c>
       <c r="E19">
-        <v>48.16</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3693,13 +8648,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/RPA/creators/resources/template.xlsx
+++ b/RPA/creators/resources/template.xlsx
@@ -7,55 +7,47 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sx5987" sheetId="1" r:id="rId1"/>
-    <sheet name="sx675471" sheetId="2" r:id="rId2"/>
-    <sheet name="sx330354" sheetId="3" r:id="rId3"/>
-    <sheet name="sx451075" sheetId="4" r:id="rId4"/>
-    <sheet name="sx487422" sheetId="5" r:id="rId5"/>
-    <sheet name="sx493503" sheetId="6" r:id="rId6"/>
-    <sheet name="sx661950" sheetId="7" r:id="rId7"/>
-    <sheet name="sx994877" sheetId="8" r:id="rId8"/>
-    <sheet name="sx717349" sheetId="9" r:id="rId9"/>
-    <sheet name="sx674918" sheetId="10" r:id="rId10"/>
-    <sheet name="sx421196" sheetId="11" r:id="rId11"/>
-    <sheet name="sx489444" sheetId="12" r:id="rId12"/>
-    <sheet name="sx704985" sheetId="13" r:id="rId13"/>
-    <sheet name="sx273340" sheetId="14" r:id="rId14"/>
-    <sheet name="sx32865" sheetId="15" r:id="rId15"/>
-    <sheet name="sx200517" sheetId="16" r:id="rId16"/>
-    <sheet name="sx262463" sheetId="17" r:id="rId17"/>
-    <sheet name="sx246818" sheetId="18" r:id="rId18"/>
-    <sheet name="sx154560" sheetId="19" r:id="rId19"/>
-    <sheet name="sx253969" sheetId="20" r:id="rId20"/>
-    <sheet name="sx348973" sheetId="21" r:id="rId21"/>
-    <sheet name="sx320241" sheetId="22" r:id="rId22"/>
-    <sheet name="sx723437" sheetId="23" r:id="rId23"/>
-    <sheet name="sx988897" sheetId="24" r:id="rId24"/>
-    <sheet name="sx337289" sheetId="25" r:id="rId25"/>
+    <sheet name="sx154280" sheetId="1" r:id="rId1"/>
+    <sheet name="sx338991" sheetId="2" r:id="rId2"/>
+    <sheet name="sx68730" sheetId="3" r:id="rId3"/>
+    <sheet name="sx954676" sheetId="4" r:id="rId4"/>
+    <sheet name="sx298265" sheetId="5" r:id="rId5"/>
+    <sheet name="sx984871" sheetId="6" r:id="rId6"/>
+    <sheet name="sx41883" sheetId="7" r:id="rId7"/>
+    <sheet name="sx711571" sheetId="8" r:id="rId8"/>
+    <sheet name="sx514331" sheetId="9" r:id="rId9"/>
+    <sheet name="sx549926" sheetId="10" r:id="rId10"/>
+    <sheet name="sx62556" sheetId="11" r:id="rId11"/>
+    <sheet name="sx938670" sheetId="12" r:id="rId12"/>
+    <sheet name="sx47333" sheetId="13" r:id="rId13"/>
+    <sheet name="sx898812" sheetId="14" r:id="rId14"/>
+    <sheet name="sx477094" sheetId="15" r:id="rId15"/>
+    <sheet name="sx88389" sheetId="16" r:id="rId16"/>
+    <sheet name="sx889242" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="183">
   <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t>178.88€</t>
-  </si>
-  <si>
-    <t>176.96€</t>
+    <t>159.8€</t>
+  </si>
+  <si>
+    <t>157.4€</t>
   </si>
   <si>
     <t>20%</t>
   </si>
   <si>
-    <t>35.39€</t>
-  </si>
-  <si>
-    <t>214.27€</t>
+    <t>31.48€</t>
+  </si>
+  <si>
+    <t>191.28€</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal: </t>
@@ -100,13 +92,13 @@
     <t>Address:</t>
   </si>
   <si>
-    <t>Vesta</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>74991 Paul Stream Apt. 017Stoutchester, DE 52495</t>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>6230 Cassandra Glen Suite 493New Alexandraport, CA 45022</t>
   </si>
   <si>
     <t>Date:</t>
@@ -121,16 +113,16 @@
     <t>Due date:</t>
   </si>
   <si>
-    <t>2020-02-18</t>
-  </si>
-  <si>
-    <t>202045422</t>
-  </si>
-  <si>
-    <t>sx5987</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020461563</t>
+  </si>
+  <si>
+    <t>sx154280</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
   </si>
   <si>
     <t>Product</t>
@@ -157,652 +149,436 @@
     <t>2. Please include the invoice number on your check</t>
   </si>
   <si>
-    <t>93.96€</t>
-  </si>
-  <si>
-    <t>92.52€</t>
-  </si>
-  <si>
-    <t>18.5€</t>
-  </si>
-  <si>
-    <t>112.46€</t>
-  </si>
-  <si>
-    <t>Donald</t>
-  </si>
-  <si>
-    <t>Carwile</t>
-  </si>
-  <si>
-    <t>4752 Torres Via Suite 119New Christopher, DE 27898</t>
-  </si>
-  <si>
-    <t>2020495877</t>
-  </si>
-  <si>
-    <t>sx675471</t>
-  </si>
-  <si>
-    <t>72.48€</t>
-  </si>
-  <si>
-    <t>70.56€</t>
-  </si>
-  <si>
-    <t>14.11€</t>
-  </si>
-  <si>
-    <t>86.59€</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Fisher</t>
-  </si>
-  <si>
-    <t>26715 Fitzgerald Falls Apt. 684Lake Courtney, IL 35941</t>
-  </si>
-  <si>
-    <t>2020855164</t>
-  </si>
-  <si>
-    <t>sx330354</t>
-  </si>
-  <si>
-    <t>258.16€</t>
-  </si>
-  <si>
-    <t>256.48€</t>
-  </si>
-  <si>
-    <t>51.3€</t>
-  </si>
-  <si>
-    <t>309.46€</t>
-  </si>
-  <si>
-    <t>Rufus</t>
-  </si>
-  <si>
-    <t>Nappi</t>
-  </si>
-  <si>
-    <t>3592 Waters GreenLarsontown, UT 70758</t>
-  </si>
-  <si>
-    <t>2020798858</t>
-  </si>
-  <si>
-    <t>sx451075</t>
-  </si>
-  <si>
-    <t>105.84€</t>
-  </si>
-  <si>
-    <t>104.16€</t>
-  </si>
-  <si>
-    <t>20.83€</t>
-  </si>
-  <si>
-    <t>126.67€</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Smelley</t>
-  </si>
-  <si>
-    <t>7696 Morrison Fort Suite 090East Kimberly, NM 84451</t>
-  </si>
-  <si>
-    <t>2020337593</t>
-  </si>
-  <si>
-    <t>sx487422</t>
-  </si>
-  <si>
-    <t>30.12€</t>
-  </si>
-  <si>
-    <t>28.68€</t>
-  </si>
-  <si>
-    <t>5.74€</t>
-  </si>
-  <si>
-    <t>35.86€</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>Barber</t>
-  </si>
-  <si>
-    <t>Unit 3156 Box 0665DPO AE 51578</t>
-  </si>
-  <si>
-    <t>2020544196</t>
-  </si>
-  <si>
-    <t>sx493503</t>
-  </si>
-  <si>
-    <t>181.44€</t>
-  </si>
-  <si>
-    <t>180.0€</t>
-  </si>
-  <si>
-    <t>36.0€</t>
-  </si>
-  <si>
-    <t>217.44€</t>
-  </si>
-  <si>
-    <t>Vickie</t>
-  </si>
-  <si>
-    <t>Manor</t>
-  </si>
-  <si>
-    <t>59248 Hayley Alley Apt. 343West Danieltown, NM 05797</t>
-  </si>
-  <si>
-    <t>2020436554</t>
-  </si>
-  <si>
-    <t>sx661950</t>
-  </si>
-  <si>
-    <t>70.72€</t>
-  </si>
-  <si>
-    <t>68.8€</t>
-  </si>
-  <si>
-    <t>13.76€</t>
-  </si>
-  <si>
-    <t>84.48€</t>
-  </si>
-  <si>
-    <t>Herminia</t>
-  </si>
-  <si>
-    <t>Contreras</t>
-  </si>
-  <si>
-    <t>632 Rebecca Junction Suite 914Lake Rachelbury, SC 73296</t>
-  </si>
-  <si>
-    <t>2020714408</t>
-  </si>
-  <si>
-    <t>sx994877</t>
-  </si>
-  <si>
-    <t>56.16€</t>
+    <t>295.68€</t>
+  </si>
+  <si>
+    <t>293.76€</t>
+  </si>
+  <si>
+    <t>58.75€</t>
+  </si>
+  <si>
+    <t>354.43€</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Bodine</t>
+  </si>
+  <si>
+    <t>5489 Kimberly Circles Apt. 623New Scott, CT 34674</t>
+  </si>
+  <si>
+    <t>2020929809</t>
+  </si>
+  <si>
+    <t>sx338991</t>
+  </si>
+  <si>
+    <t>88.48€</t>
+  </si>
+  <si>
+    <t>86.56€</t>
+  </si>
+  <si>
+    <t>17.31€</t>
+  </si>
+  <si>
+    <t>105.79€</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Sickafoose</t>
+  </si>
+  <si>
+    <t>2038 Lori CliffsNew Nathan, SD 45633</t>
+  </si>
+  <si>
+    <t>2020390550</t>
+  </si>
+  <si>
+    <t>sx68730</t>
+  </si>
+  <si>
+    <t>102.96€</t>
+  </si>
+  <si>
+    <t>101.52€</t>
+  </si>
+  <si>
+    <t>20.3€</t>
+  </si>
+  <si>
+    <t>123.26€</t>
+  </si>
+  <si>
+    <t>Mildred</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>6573 Daniel Branch Suite 413Port Robert, WI 89566</t>
+  </si>
+  <si>
+    <t>202049826</t>
+  </si>
+  <si>
+    <t>sx954676</t>
+  </si>
+  <si>
+    <t>168.66€</t>
+  </si>
+  <si>
+    <t>166.5€</t>
+  </si>
+  <si>
+    <t>33.3€</t>
+  </si>
+  <si>
+    <t>201.96€</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>1498 Cooper Throughway Apt. 827North Susan, WA 21163</t>
+  </si>
+  <si>
+    <t>2020571338</t>
+  </si>
+  <si>
+    <t>sx298265</t>
+  </si>
+  <si>
+    <t>297.36€</t>
+  </si>
+  <si>
+    <t>295.2€</t>
+  </si>
+  <si>
+    <t>59.04€</t>
+  </si>
+  <si>
+    <t>356.4€</t>
+  </si>
+  <si>
+    <t>Horace</t>
+  </si>
+  <si>
+    <t>Timmons</t>
+  </si>
+  <si>
+    <t>663 Romero PassageNew Rebecca, MN 74765</t>
+  </si>
+  <si>
+    <t>2020611915</t>
+  </si>
+  <si>
+    <t>sx984871</t>
+  </si>
+  <si>
+    <t>217.8€</t>
+  </si>
+  <si>
+    <t>215.64€</t>
+  </si>
+  <si>
+    <t>43.13€</t>
+  </si>
+  <si>
+    <t>260.93€</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Bouldin</t>
+  </si>
+  <si>
+    <t>7965 Wiggins PortsLake Mariah, NY 67357</t>
+  </si>
+  <si>
+    <t>2020423830</t>
+  </si>
+  <si>
+    <t>sx41883</t>
+  </si>
+  <si>
+    <t>227.2€</t>
+  </si>
+  <si>
+    <t>224.8€</t>
+  </si>
+  <si>
+    <t>44.96€</t>
+  </si>
+  <si>
+    <t>272.16€</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>363 Michele Light Suite 437Owentown, VA 20854</t>
+  </si>
+  <si>
+    <t>2020791826</t>
+  </si>
+  <si>
+    <t>sx711571</t>
+  </si>
+  <si>
+    <t>214.8€</t>
+  </si>
+  <si>
+    <t>212.4€</t>
+  </si>
+  <si>
+    <t>42.48€</t>
+  </si>
+  <si>
+    <t>257.28€</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Schwartz</t>
+  </si>
+  <si>
+    <t>657 Wilson Pines Suite 962West Trevor, UT 12899</t>
+  </si>
+  <si>
+    <t>2020829710</t>
+  </si>
+  <si>
+    <t>sx514331</t>
+  </si>
+  <si>
+    <t>238.2€</t>
+  </si>
+  <si>
+    <t>236.76€</t>
+  </si>
+  <si>
+    <t>47.35€</t>
+  </si>
+  <si>
+    <t>285.55€</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>99243 Richard Parks Apt. 216South Angelafurt, TN 64813</t>
+  </si>
+  <si>
+    <t>2020507766</t>
+  </si>
+  <si>
+    <t>sx549926</t>
+  </si>
+  <si>
+    <t>179.9€</t>
+  </si>
+  <si>
+    <t>178.22€</t>
+  </si>
+  <si>
+    <t>35.64€</t>
+  </si>
+  <si>
+    <t>215.54€</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>42085 Ashley PortNew Blaketown, PA 64272</t>
+  </si>
+  <si>
+    <t>2020472381</t>
+  </si>
+  <si>
+    <t>sx62556</t>
+  </si>
+  <si>
+    <t>71.28€</t>
+  </si>
+  <si>
+    <t>69.12€</t>
+  </si>
+  <si>
+    <t>13.82€</t>
+  </si>
+  <si>
+    <t>85.1€</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Woods</t>
+  </si>
+  <si>
+    <t>51712 Kimberly Neck Apt. 457Debraville, TN 78938</t>
+  </si>
+  <si>
+    <t>2020918735</t>
+  </si>
+  <si>
+    <t>sx938670</t>
+  </si>
+  <si>
+    <t>95.62€</t>
+  </si>
+  <si>
+    <t>93.94€</t>
+  </si>
+  <si>
+    <t>18.79€</t>
+  </si>
+  <si>
+    <t>114.41€</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>7668 Jennifer PrairieCollinschester, UT 42165</t>
+  </si>
+  <si>
+    <t>2020862379</t>
+  </si>
+  <si>
+    <t>sx47333</t>
+  </si>
+  <si>
+    <t>43.68€</t>
+  </si>
+  <si>
+    <t>41.76€</t>
+  </si>
+  <si>
+    <t>8.35€</t>
+  </si>
+  <si>
+    <t>52.03€</t>
+  </si>
+  <si>
+    <t>Alfred</t>
+  </si>
+  <si>
+    <t>Stevens</t>
+  </si>
+  <si>
+    <t>90836 Chavez Cliffs Suite 681North Jerry, WA 49960</t>
+  </si>
+  <si>
+    <t>2020627223</t>
+  </si>
+  <si>
+    <t>sx898812</t>
+  </si>
+  <si>
+    <t>280.64€</t>
+  </si>
+  <si>
+    <t>278.72€</t>
+  </si>
+  <si>
+    <t>55.74€</t>
+  </si>
+  <si>
+    <t>336.38€</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>445 Jessica ShoalsSouth Davidshire, HI 99341</t>
+  </si>
+  <si>
+    <t>2020447853</t>
+  </si>
+  <si>
+    <t>sx477094</t>
+  </si>
+  <si>
+    <t>46.0€</t>
+  </si>
+  <si>
+    <t>43.6€</t>
+  </si>
+  <si>
+    <t>8.72€</t>
   </si>
   <si>
     <t>54.72€</t>
   </si>
   <si>
-    <t>10.94€</t>
-  </si>
-  <si>
-    <t>67.1€</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>Renfroe</t>
-  </si>
-  <si>
-    <t>PSC 2161, Box 8598APO AE 04248</t>
-  </si>
-  <si>
-    <t>2020398012</t>
-  </si>
-  <si>
-    <t>sx717349</t>
-  </si>
-  <si>
-    <t>187.92€</t>
-  </si>
-  <si>
-    <t>185.76€</t>
-  </si>
-  <si>
-    <t>37.15€</t>
-  </si>
-  <si>
-    <t>225.07€</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Shuck</t>
-  </si>
-  <si>
-    <t>PSC 0979, Box 6971APO AA 44120</t>
-  </si>
-  <si>
-    <t>2020470011</t>
-  </si>
-  <si>
-    <t>sx674918</t>
-  </si>
-  <si>
-    <t>122.28€</t>
-  </si>
-  <si>
-    <t>120.84€</t>
-  </si>
-  <si>
-    <t>24.17€</t>
-  </si>
-  <si>
-    <t>146.45€</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Landry</t>
-  </si>
-  <si>
-    <t>PSC 0777, Box 3635APO AP 90976</t>
-  </si>
-  <si>
-    <t>202031967</t>
-  </si>
-  <si>
-    <t>sx421196</t>
-  </si>
-  <si>
-    <t>112.42€</t>
-  </si>
-  <si>
-    <t>110.74€</t>
-  </si>
-  <si>
-    <t>22.15€</t>
-  </si>
-  <si>
-    <t>134.57€</t>
-  </si>
-  <si>
-    <t>Ricky</t>
-  </si>
-  <si>
-    <t>Stephens</t>
-  </si>
-  <si>
-    <t>PSC 3070, Box 1811APO AE 86557</t>
-  </si>
-  <si>
-    <t>2020429694</t>
-  </si>
-  <si>
-    <t>sx489444</t>
-  </si>
-  <si>
-    <t>90.12€</t>
-  </si>
-  <si>
-    <t>88.68€</t>
-  </si>
-  <si>
-    <t>17.74€</t>
-  </si>
-  <si>
-    <t>107.86€</t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
-    <t>Mcwhorter</t>
-  </si>
-  <si>
-    <t>20171 Savage MallLake Charlesborough, MI 51441</t>
-  </si>
-  <si>
-    <t>2020133397</t>
-  </si>
-  <si>
-    <t>sx704985</t>
-  </si>
-  <si>
-    <t>337.6€</t>
-  </si>
-  <si>
-    <t>335.2€</t>
-  </si>
-  <si>
-    <t>67.04€</t>
-  </si>
-  <si>
-    <t>404.64€</t>
-  </si>
-  <si>
-    <t>Deborah</t>
-  </si>
-  <si>
-    <t>Busch</t>
-  </si>
-  <si>
-    <t>41873 Emma CapeLake Alanfurt, AZ 43073</t>
-  </si>
-  <si>
-    <t>2020255812</t>
-  </si>
-  <si>
-    <t>sx273340</t>
-  </si>
-  <si>
-    <t>50.64€</t>
-  </si>
-  <si>
-    <t>49.2€</t>
-  </si>
-  <si>
-    <t>9.84€</t>
-  </si>
-  <si>
-    <t>60.48€</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>Lachance</t>
-  </si>
-  <si>
-    <t>8556 Shelton JunctionLake Deanna, CT 79848</t>
-  </si>
-  <si>
-    <t>2020387876</t>
-  </si>
-  <si>
-    <t>sx32865</t>
-  </si>
-  <si>
-    <t>172.8€</t>
-  </si>
-  <si>
-    <t>170.64€</t>
-  </si>
-  <si>
-    <t>34.13€</t>
-  </si>
-  <si>
-    <t>206.93€</t>
-  </si>
-  <si>
-    <t>Esther</t>
-  </si>
-  <si>
-    <t>Shyne</t>
-  </si>
-  <si>
-    <t>0979 Savannah Camp Apt. 688Masonhaven, TN 18746</t>
-  </si>
-  <si>
-    <t>2020977593</t>
-  </si>
-  <si>
-    <t>sx200517</t>
-  </si>
-  <si>
-    <t>388.6€</t>
-  </si>
-  <si>
-    <t>386.2€</t>
-  </si>
-  <si>
-    <t>77.24€</t>
-  </si>
-  <si>
-    <t>465.84€</t>
-  </si>
-  <si>
-    <t>Jermaine</t>
-  </si>
-  <si>
-    <t>Collins</t>
-  </si>
-  <si>
-    <t>635 Stephanie Mills Suite 244Port Ashley, IA 37345</t>
-  </si>
-  <si>
-    <t>2020817185</t>
-  </si>
-  <si>
-    <t>sx262463</t>
-  </si>
-  <si>
-    <t>168.0€</t>
-  </si>
-  <si>
-    <t>166.56€</t>
-  </si>
-  <si>
-    <t>33.31€</t>
-  </si>
-  <si>
-    <t>201.31€</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>32706 Johnson LandingNorth Cherylport, VA 11386</t>
-  </si>
-  <si>
-    <t>202074249</t>
-  </si>
-  <si>
-    <t>sx246818</t>
-  </si>
-  <si>
-    <t>248.76€</t>
-  </si>
-  <si>
-    <t>246.6€</t>
-  </si>
-  <si>
-    <t>49.32€</t>
-  </si>
-  <si>
-    <t>298.08€</t>
-  </si>
-  <si>
-    <t>Elton</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>3657 Smith Spurs Apt. 500Stevenfort, NJ 55316</t>
-  </si>
-  <si>
-    <t>2020677635</t>
-  </si>
-  <si>
-    <t>sx154560</t>
-  </si>
-  <si>
-    <t>231.36€</t>
-  </si>
-  <si>
-    <t>229.92€</t>
-  </si>
-  <si>
-    <t>45.98€</t>
-  </si>
-  <si>
-    <t>277.34€</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>194 Foley CenterSouth Anthony, KS 96478</t>
-  </si>
-  <si>
-    <t>2020388204</t>
-  </si>
-  <si>
-    <t>sx253969</t>
-  </si>
-  <si>
-    <t>66.4€</t>
-  </si>
-  <si>
-    <t>64.0€</t>
-  </si>
-  <si>
-    <t>12.8€</t>
-  </si>
-  <si>
-    <t>79.2€</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Graham</t>
-  </si>
-  <si>
-    <t>559 Sanford Junctions Apt. 884Port Mark, LA 85698</t>
-  </si>
-  <si>
-    <t>2020666819</t>
-  </si>
-  <si>
-    <t>sx348973</t>
-  </si>
-  <si>
-    <t>179.62€</t>
-  </si>
-  <si>
-    <t>177.94€</t>
-  </si>
-  <si>
-    <t>35.59€</t>
-  </si>
-  <si>
-    <t>215.21€</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>28756 Martin CrestRosaleshaven, NC 54286</t>
-  </si>
-  <si>
-    <t>2020428419</t>
-  </si>
-  <si>
-    <t>sx320241</t>
-  </si>
-  <si>
-    <t>170.66€</t>
-  </si>
-  <si>
-    <t>168.98€</t>
-  </si>
-  <si>
-    <t>33.8€</t>
-  </si>
-  <si>
-    <t>204.46€</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Millet</t>
-  </si>
-  <si>
-    <t>155 Huber Heights Apt. 134North Jasmineside, OR 16248</t>
-  </si>
-  <si>
-    <t>2020423959</t>
-  </si>
-  <si>
-    <t>sx723437</t>
-  </si>
-  <si>
-    <t>111.24€</t>
-  </si>
-  <si>
-    <t>109.08€</t>
-  </si>
-  <si>
-    <t>21.82€</t>
-  </si>
-  <si>
-    <t>133.06€</t>
-  </si>
-  <si>
-    <t>Leroy</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>04027 Jennifer CentersNew Christopher, DC 03312</t>
-  </si>
-  <si>
-    <t>2020843073</t>
-  </si>
-  <si>
-    <t>sx988897</t>
-  </si>
-  <si>
-    <t>125.04€</t>
-  </si>
-  <si>
-    <t>123.6€</t>
-  </si>
-  <si>
-    <t>24.72€</t>
-  </si>
-  <si>
-    <t>149.76€</t>
-  </si>
-  <si>
-    <t>Brittany</t>
-  </si>
-  <si>
-    <t>Dempsey</t>
-  </si>
-  <si>
-    <t>678 Wilson SummitKarentown, NC 63953</t>
-  </si>
-  <si>
-    <t>202015930</t>
-  </si>
-  <si>
-    <t>sx337289</t>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t>Jakeman</t>
+  </si>
+  <si>
+    <t>Unit 3059 Box 8574DPO AE 25972</t>
+  </si>
+  <si>
+    <t>2020166186</t>
+  </si>
+  <si>
+    <t>sx88389</t>
+  </si>
+  <si>
+    <t>265.44€</t>
+  </si>
+  <si>
+    <t>263.52€</t>
+  </si>
+  <si>
+    <t>52.7€</t>
+  </si>
+  <si>
+    <t>318.14€</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>8947 Michelle CliffsSpearston, SC 17899</t>
+  </si>
+  <si>
+    <t>2020758259</t>
+  </si>
+  <si>
+    <t>sx889242</t>
   </si>
 </sst>
 </file>
@@ -1488,559 +1264,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7048500"/>
-          <a:ext cx="5524500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7048500"/>
-          <a:ext cx="5524500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7048500"/>
-          <a:ext cx="5524500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7048500"/>
-          <a:ext cx="5524500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7048500"/>
-          <a:ext cx="5524500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7048500"/>
-          <a:ext cx="5524500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7048500"/>
-          <a:ext cx="5524500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7048500"/>
-          <a:ext cx="5524500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2718,120 +1942,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A18:E20" totalsRowShown="0">
-  <autoFilter ref="A18:E20"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Product"/>
-    <tableColumn id="2" name="Tariff"/>
-    <tableColumn id="3" name="Price kw/h"/>
-    <tableColumn id="4" name="Consumption"/>
-    <tableColumn id="5" name="Amount"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="A18:E20" totalsRowShown="0">
-  <autoFilter ref="A18:E20"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Product"/>
-    <tableColumn id="2" name="Tariff"/>
-    <tableColumn id="3" name="Price kw/h"/>
-    <tableColumn id="4" name="Consumption"/>
-    <tableColumn id="5" name="Amount"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:E20" totalsRowShown="0">
-  <autoFilter ref="A18:E20"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Product"/>
-    <tableColumn id="2" name="Tariff"/>
-    <tableColumn id="3" name="Price kw/h"/>
-    <tableColumn id="4" name="Consumption"/>
-    <tableColumn id="5" name="Amount"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A18:E20" totalsRowShown="0">
-  <autoFilter ref="A18:E20"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Product"/>
-    <tableColumn id="2" name="Tariff"/>
-    <tableColumn id="3" name="Price kw/h"/>
-    <tableColumn id="4" name="Consumption"/>
-    <tableColumn id="5" name="Amount"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A18:E20" totalsRowShown="0">
-  <autoFilter ref="A18:E20"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Product"/>
-    <tableColumn id="2" name="Tariff"/>
-    <tableColumn id="3" name="Price kw/h"/>
-    <tableColumn id="4" name="Consumption"/>
-    <tableColumn id="5" name="Amount"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="A18:E20" totalsRowShown="0">
-  <autoFilter ref="A18:E20"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Product"/>
-    <tableColumn id="2" name="Tariff"/>
-    <tableColumn id="3" name="Price kw/h"/>
-    <tableColumn id="4" name="Consumption"/>
-    <tableColumn id="5" name="Amount"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="A18:E20" totalsRowShown="0">
-  <autoFilter ref="A18:E20"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Product"/>
-    <tableColumn id="2" name="Tariff"/>
-    <tableColumn id="3" name="Price kw/h"/>
-    <tableColumn id="4" name="Consumption"/>
-    <tableColumn id="5" name="Amount"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="A18:E20" totalsRowShown="0">
-  <autoFilter ref="A18:E20"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Product"/>
-    <tableColumn id="2" name="Tariff"/>
-    <tableColumn id="3" name="Price kw/h"/>
-    <tableColumn id="4" name="Consumption"/>
-    <tableColumn id="5" name="Amount"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table25" displayName="Table25" ref="A18:E20" totalsRowShown="0">
   <autoFilter ref="A18:E20"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Product"/>
@@ -3348,16 +2460,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <v>1106</v>
+        <v>787</v>
       </c>
       <c r="E19">
-        <v>176.96</v>
+        <v>157.4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3368,13 +2480,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3568,16 +2680,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D19">
-        <v>1032</v>
+        <v>1973</v>
       </c>
       <c r="E19">
-        <v>185.76</v>
+        <v>236.76</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3588,13 +2700,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.16</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3788,16 +2900,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D19">
-        <v>1007</v>
+        <v>1273</v>
       </c>
       <c r="E19">
-        <v>120.84</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3808,13 +2920,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4008,16 +3120,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="D19">
-        <v>791</v>
+        <v>384</v>
       </c>
       <c r="E19">
-        <v>110.74</v>
+        <v>69.12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4028,13 +3140,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4228,16 +3340,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D19">
-        <v>739</v>
+        <v>671</v>
       </c>
       <c r="E19">
-        <v>88.67999999999999</v>
+        <v>93.94000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4248,13 +3360,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4448,16 +3560,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D19">
-        <v>1676</v>
+        <v>261</v>
       </c>
       <c r="E19">
-        <v>335.2</v>
+        <v>41.76</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4468,13 +3580,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4668,16 +3780,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="D19">
-        <v>410</v>
+        <v>1742</v>
       </c>
       <c r="E19">
-        <v>49.2</v>
+        <v>278.72</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4688,13 +3800,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.44</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4888,16 +4000,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <v>948</v>
+        <v>218</v>
       </c>
       <c r="E19">
-        <v>170.64</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4908,13 +4020,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5108,16 +4220,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D19">
-        <v>1931</v>
+        <v>1647</v>
       </c>
       <c r="E19">
-        <v>386.2</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5128,13 +4240,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5175,446 +4287,6 @@
       </c>
       <c r="E25" s="3" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawingHF r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0.12</v>
-      </c>
-      <c r="D19">
-        <v>1388</v>
-      </c>
-      <c r="E19">
-        <v>166.56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0.12</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawingHF r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>0.18</v>
-      </c>
-      <c r="D19">
-        <v>1370</v>
-      </c>
-      <c r="E19">
-        <v>246.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0.18</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5768,16 +4440,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="D19">
-        <v>771</v>
+        <v>1836</v>
       </c>
       <c r="E19">
-        <v>92.52</v>
+        <v>293.76</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5788,13 +4460,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.44</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5835,1326 +4507,6 @@
       </c>
       <c r="E25" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawingHF r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0.12</v>
-      </c>
-      <c r="D19">
-        <v>1916</v>
-      </c>
-      <c r="E19">
-        <v>229.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0.12</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawingHF r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>0.2</v>
-      </c>
-      <c r="D19">
-        <v>320</v>
-      </c>
-      <c r="E19">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0.2</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawingHF r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0.14</v>
-      </c>
-      <c r="D19">
-        <v>1271</v>
-      </c>
-      <c r="E19">
-        <v>177.94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0.14</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawingHF r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0.14</v>
-      </c>
-      <c r="D19">
-        <v>1207</v>
-      </c>
-      <c r="E19">
-        <v>168.98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0.14</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawingHF r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>0.18</v>
-      </c>
-      <c r="D19">
-        <v>606</v>
-      </c>
-      <c r="E19">
-        <v>109.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0.18</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawingHF r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0.12</v>
-      </c>
-      <c r="D19">
-        <v>1030</v>
-      </c>
-      <c r="E19">
-        <v>123.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0.12</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7314,10 +4666,10 @@
         <v>0.16</v>
       </c>
       <c r="D19">
-        <v>441</v>
+        <v>541</v>
       </c>
       <c r="E19">
-        <v>70.56</v>
+        <v>86.56</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7528,16 +4880,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D19">
-        <v>1832</v>
+        <v>846</v>
       </c>
       <c r="E19">
-        <v>256.48</v>
+        <v>101.52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7548,13 +4900,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7748,16 +5100,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="D19">
-        <v>744</v>
+        <v>925</v>
       </c>
       <c r="E19">
-        <v>104.16</v>
+        <v>166.5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7768,13 +5120,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7968,16 +5320,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="D19">
-        <v>239</v>
+        <v>1640</v>
       </c>
       <c r="E19">
-        <v>28.68</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7988,13 +5340,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.44</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8188,16 +5540,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="D19">
-        <v>1500</v>
+        <v>1198</v>
       </c>
       <c r="E19">
-        <v>180</v>
+        <v>215.64</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8208,13 +5560,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.44</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8408,16 +5760,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <v>430</v>
+        <v>1124</v>
       </c>
       <c r="E19">
-        <v>68.8</v>
+        <v>224.8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8428,13 +5780,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8628,16 +5980,16 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <v>456</v>
+        <v>1062</v>
       </c>
       <c r="E19">
-        <v>54.72</v>
+        <v>212.4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8648,13 +6000,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/RPA/creators/resources/template.xlsx
+++ b/RPA/creators/resources/template.xlsx
@@ -24,30 +24,40 @@
     <sheet name="sx477094" sheetId="15" r:id="rId15"/>
     <sheet name="sx88389" sheetId="16" r:id="rId16"/>
     <sheet name="sx889242" sheetId="17" r:id="rId17"/>
+    <sheet name="sx943661" sheetId="18" r:id="rId18"/>
+    <sheet name="sx406021" sheetId="19" r:id="rId19"/>
+    <sheet name="sx186244" sheetId="20" r:id="rId20"/>
+    <sheet name="sx700619" sheetId="21" r:id="rId21"/>
+    <sheet name="sx645328" sheetId="22" r:id="rId22"/>
+    <sheet name="sx556458" sheetId="23" r:id="rId23"/>
+    <sheet name="sx769793" sheetId="24" r:id="rId24"/>
+    <sheet name="sx349370" sheetId="25" r:id="rId25"/>
+    <sheet name="sx382183" sheetId="26" r:id="rId26"/>
+    <sheet name="sx45329" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="272">
   <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t>159.8€</t>
-  </si>
-  <si>
-    <t>157.4€</t>
+    <t>103.0€</t>
+  </si>
+  <si>
+    <t>100.6€</t>
   </si>
   <si>
     <t>20%</t>
   </si>
   <si>
-    <t>31.48€</t>
-  </si>
-  <si>
-    <t>191.28€</t>
+    <t>20.12€</t>
+  </si>
+  <si>
+    <t>123.12€</t>
   </si>
   <si>
     <t xml:space="preserve">Subtotal: </t>
@@ -116,7 +126,7 @@
     <t>2020-02-21</t>
   </si>
   <si>
-    <t>2020461563</t>
+    <t>2020362107</t>
   </si>
   <si>
     <t>sx154280</t>
@@ -149,16 +159,16 @@
     <t>2. Please include the invoice number on your check</t>
   </si>
   <si>
-    <t>295.68€</t>
-  </si>
-  <si>
-    <t>293.76€</t>
-  </si>
-  <si>
-    <t>58.75€</t>
-  </si>
-  <si>
-    <t>354.43€</t>
+    <t>57.12€</t>
+  </si>
+  <si>
+    <t>55.2€</t>
+  </si>
+  <si>
+    <t>11.04€</t>
+  </si>
+  <si>
+    <t>68.16€</t>
   </si>
   <si>
     <t>Marion</t>
@@ -170,22 +180,22 @@
     <t>5489 Kimberly Circles Apt. 623New Scott, CT 34674</t>
   </si>
   <si>
-    <t>2020929809</t>
+    <t>2020630877</t>
   </si>
   <si>
     <t>sx338991</t>
   </si>
   <si>
-    <t>88.48€</t>
-  </si>
-  <si>
-    <t>86.56€</t>
-  </si>
-  <si>
-    <t>17.31€</t>
-  </si>
-  <si>
-    <t>105.79€</t>
+    <t>72.0€</t>
+  </si>
+  <si>
+    <t>70.08€</t>
+  </si>
+  <si>
+    <t>14.02€</t>
+  </si>
+  <si>
+    <t>86.02€</t>
   </si>
   <si>
     <t>Robert</t>
@@ -197,22 +207,22 @@
     <t>2038 Lori CliffsNew Nathan, SD 45633</t>
   </si>
   <si>
-    <t>2020390550</t>
+    <t>2020845031</t>
   </si>
   <si>
     <t>sx68730</t>
   </si>
   <si>
-    <t>102.96€</t>
-  </si>
-  <si>
-    <t>101.52€</t>
-  </si>
-  <si>
-    <t>20.3€</t>
-  </si>
-  <si>
-    <t>123.26€</t>
+    <t>62.52€</t>
+  </si>
+  <si>
+    <t>61.08€</t>
+  </si>
+  <si>
+    <t>12.22€</t>
+  </si>
+  <si>
+    <t>74.74€</t>
   </si>
   <si>
     <t>Mildred</t>
@@ -224,22 +234,22 @@
     <t>6573 Daniel Branch Suite 413Port Robert, WI 89566</t>
   </si>
   <si>
-    <t>202049826</t>
+    <t>2020308647</t>
   </si>
   <si>
     <t>sx954676</t>
   </si>
   <si>
-    <t>168.66€</t>
-  </si>
-  <si>
-    <t>166.5€</t>
-  </si>
-  <si>
-    <t>33.3€</t>
-  </si>
-  <si>
-    <t>201.96€</t>
+    <t>243.9€</t>
+  </si>
+  <si>
+    <t>241.74€</t>
+  </si>
+  <si>
+    <t>48.35€</t>
+  </si>
+  <si>
+    <t>292.25€</t>
   </si>
   <si>
     <t>Guillermo</t>
@@ -251,22 +261,22 @@
     <t>1498 Cooper Throughway Apt. 827North Susan, WA 21163</t>
   </si>
   <si>
-    <t>2020571338</t>
+    <t>2020804722</t>
   </si>
   <si>
     <t>sx298265</t>
   </si>
   <si>
-    <t>297.36€</t>
-  </si>
-  <si>
-    <t>295.2€</t>
-  </si>
-  <si>
-    <t>59.04€</t>
-  </si>
-  <si>
-    <t>356.4€</t>
+    <t>267.84€</t>
+  </si>
+  <si>
+    <t>265.68€</t>
+  </si>
+  <si>
+    <t>53.14€</t>
+  </si>
+  <si>
+    <t>320.98€</t>
   </si>
   <si>
     <t>Horace</t>
@@ -278,22 +288,22 @@
     <t>663 Romero PassageNew Rebecca, MN 74765</t>
   </si>
   <si>
-    <t>2020611915</t>
+    <t>2020761317</t>
   </si>
   <si>
     <t>sx984871</t>
   </si>
   <si>
-    <t>217.8€</t>
-  </si>
-  <si>
-    <t>215.64€</t>
-  </si>
-  <si>
-    <t>43.13€</t>
-  </si>
-  <si>
-    <t>260.93€</t>
+    <t>283.68€</t>
+  </si>
+  <si>
+    <t>281.52€</t>
+  </si>
+  <si>
+    <t>56.3€</t>
+  </si>
+  <si>
+    <t>339.98€</t>
   </si>
   <si>
     <t>Margaret</t>
@@ -305,22 +315,22 @@
     <t>7965 Wiggins PortsLake Mariah, NY 67357</t>
   </si>
   <si>
-    <t>2020423830</t>
+    <t>202078888</t>
   </si>
   <si>
     <t>sx41883</t>
   </si>
   <si>
-    <t>227.2€</t>
-  </si>
-  <si>
-    <t>224.8€</t>
-  </si>
-  <si>
-    <t>44.96€</t>
-  </si>
-  <si>
-    <t>272.16€</t>
+    <t>244.2€</t>
+  </si>
+  <si>
+    <t>241.8€</t>
+  </si>
+  <si>
+    <t>48.36€</t>
+  </si>
+  <si>
+    <t>292.56€</t>
   </si>
   <si>
     <t>Nora</t>
@@ -332,22 +342,22 @@
     <t>363 Michele Light Suite 437Owentown, VA 20854</t>
   </si>
   <si>
-    <t>2020791826</t>
+    <t>2020643935</t>
   </si>
   <si>
     <t>sx711571</t>
   </si>
   <si>
-    <t>214.8€</t>
-  </si>
-  <si>
-    <t>212.4€</t>
-  </si>
-  <si>
-    <t>42.48€</t>
-  </si>
-  <si>
-    <t>257.28€</t>
+    <t>348.8€</t>
+  </si>
+  <si>
+    <t>346.4€</t>
+  </si>
+  <si>
+    <t>69.28€</t>
+  </si>
+  <si>
+    <t>418.08€</t>
   </si>
   <si>
     <t>Clyde</t>
@@ -359,22 +369,22 @@
     <t>657 Wilson Pines Suite 962West Trevor, UT 12899</t>
   </si>
   <si>
-    <t>2020829710</t>
+    <t>2020722480</t>
   </si>
   <si>
     <t>sx514331</t>
   </si>
   <si>
-    <t>238.2€</t>
-  </si>
-  <si>
-    <t>236.76€</t>
-  </si>
-  <si>
-    <t>47.35€</t>
-  </si>
-  <si>
-    <t>285.55€</t>
+    <t>62.04€</t>
+  </si>
+  <si>
+    <t>60.6€</t>
+  </si>
+  <si>
+    <t>12.12€</t>
+  </si>
+  <si>
+    <t>74.16€</t>
   </si>
   <si>
     <t>Virginia</t>
@@ -386,22 +396,22 @@
     <t>99243 Richard Parks Apt. 216South Angelafurt, TN 64813</t>
   </si>
   <si>
-    <t>2020507766</t>
+    <t>2020730290</t>
   </si>
   <si>
     <t>sx549926</t>
   </si>
   <si>
-    <t>179.9€</t>
-  </si>
-  <si>
-    <t>178.22€</t>
-  </si>
-  <si>
-    <t>35.64€</t>
-  </si>
-  <si>
-    <t>215.54€</t>
+    <t>55.44€</t>
+  </si>
+  <si>
+    <t>53.76€</t>
+  </si>
+  <si>
+    <t>10.75€</t>
+  </si>
+  <si>
+    <t>66.19€</t>
   </si>
   <si>
     <t>Frances</t>
@@ -413,22 +423,22 @@
     <t>42085 Ashley PortNew Blaketown, PA 64272</t>
   </si>
   <si>
-    <t>2020472381</t>
+    <t>202098270</t>
   </si>
   <si>
     <t>sx62556</t>
   </si>
   <si>
-    <t>71.28€</t>
-  </si>
-  <si>
-    <t>69.12€</t>
-  </si>
-  <si>
-    <t>13.82€</t>
-  </si>
-  <si>
-    <t>85.1€</t>
+    <t>352.62€</t>
+  </si>
+  <si>
+    <t>350.46€</t>
+  </si>
+  <si>
+    <t>70.09€</t>
+  </si>
+  <si>
+    <t>422.71€</t>
   </si>
   <si>
     <t>Carl</t>
@@ -440,22 +450,22 @@
     <t>51712 Kimberly Neck Apt. 457Debraville, TN 78938</t>
   </si>
   <si>
-    <t>2020918735</t>
+    <t>2020689911</t>
   </si>
   <si>
     <t>sx938670</t>
   </si>
   <si>
-    <t>95.62€</t>
-  </si>
-  <si>
-    <t>93.94€</t>
-  </si>
-  <si>
-    <t>18.79€</t>
-  </si>
-  <si>
-    <t>114.41€</t>
+    <t>206.64€</t>
+  </si>
+  <si>
+    <t>204.96€</t>
+  </si>
+  <si>
+    <t>40.99€</t>
+  </si>
+  <si>
+    <t>247.63€</t>
   </si>
   <si>
     <t>Katherine</t>
@@ -467,22 +477,22 @@
     <t>7668 Jennifer PrairieCollinschester, UT 42165</t>
   </si>
   <si>
-    <t>2020862379</t>
+    <t>2020880095</t>
   </si>
   <si>
     <t>sx47333</t>
   </si>
   <si>
-    <t>43.68€</t>
-  </si>
-  <si>
-    <t>41.76€</t>
-  </si>
-  <si>
-    <t>8.35€</t>
-  </si>
-  <si>
-    <t>52.03€</t>
+    <t>173.44€</t>
+  </si>
+  <si>
+    <t>171.52€</t>
+  </si>
+  <si>
+    <t>34.3€</t>
+  </si>
+  <si>
+    <t>207.74€</t>
   </si>
   <si>
     <t>Alfred</t>
@@ -494,22 +504,22 @@
     <t>90836 Chavez Cliffs Suite 681North Jerry, WA 49960</t>
   </si>
   <si>
-    <t>2020627223</t>
+    <t>2020111547</t>
   </si>
   <si>
     <t>sx898812</t>
   </si>
   <si>
-    <t>280.64€</t>
-  </si>
-  <si>
-    <t>278.72€</t>
-  </si>
-  <si>
-    <t>55.74€</t>
-  </si>
-  <si>
-    <t>336.38€</t>
+    <t>85.12€</t>
+  </si>
+  <si>
+    <t>83.2€</t>
+  </si>
+  <si>
+    <t>16.64€</t>
+  </si>
+  <si>
+    <t>101.76€</t>
   </si>
   <si>
     <t>Cole</t>
@@ -521,64 +531,331 @@
     <t>445 Jessica ShoalsSouth Davidshire, HI 99341</t>
   </si>
   <si>
-    <t>2020447853</t>
+    <t>2020358075</t>
   </si>
   <si>
     <t>sx477094</t>
   </si>
   <si>
-    <t>46.0€</t>
-  </si>
-  <si>
-    <t>43.6€</t>
-  </si>
-  <si>
-    <t>8.72€</t>
+    <t>355.2€</t>
+  </si>
+  <si>
+    <t>352.8€</t>
+  </si>
+  <si>
+    <t>70.56€</t>
+  </si>
+  <si>
+    <t>425.76€</t>
+  </si>
+  <si>
+    <t>Devin</t>
+  </si>
+  <si>
+    <t>Jakeman</t>
+  </si>
+  <si>
+    <t>Unit 3059 Box 8574DPO AE 25972</t>
+  </si>
+  <si>
+    <t>2020142858</t>
+  </si>
+  <si>
+    <t>sx88389</t>
+  </si>
+  <si>
+    <t>277.12€</t>
+  </si>
+  <si>
+    <t>275.2€</t>
+  </si>
+  <si>
+    <t>55.04€</t>
+  </si>
+  <si>
+    <t>332.16€</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>8947 Michelle CliffsSpearston, SC 17899</t>
+  </si>
+  <si>
+    <t>2020395857</t>
+  </si>
+  <si>
+    <t>sx889242</t>
+  </si>
+  <si>
+    <t>366.4€</t>
+  </si>
+  <si>
+    <t>364.0€</t>
+  </si>
+  <si>
+    <t>72.8€</t>
+  </si>
+  <si>
+    <t>439.2€</t>
+  </si>
+  <si>
+    <t>Effie</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>0456 Catherine Trail Apt. 217Lake Karenport, IA 25826</t>
+  </si>
+  <si>
+    <t>2020285111</t>
+  </si>
+  <si>
+    <t>sx943661</t>
+  </si>
+  <si>
+    <t>33.74€</t>
+  </si>
+  <si>
+    <t>32.06€</t>
+  </si>
+  <si>
+    <t>6.41€</t>
+  </si>
+  <si>
+    <t>40.15€</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>USNV JohnsonFPO AE 11189</t>
+  </si>
+  <si>
+    <t>2020684053</t>
+  </si>
+  <si>
+    <t>sx406021</t>
+  </si>
+  <si>
+    <t>275.52€</t>
+  </si>
+  <si>
+    <t>273.6€</t>
   </si>
   <si>
     <t>54.72€</t>
   </si>
   <si>
-    <t>Devin</t>
-  </si>
-  <si>
-    <t>Jakeman</t>
-  </si>
-  <si>
-    <t>Unit 3059 Box 8574DPO AE 25972</t>
-  </si>
-  <si>
-    <t>2020166186</t>
-  </si>
-  <si>
-    <t>sx88389</t>
-  </si>
-  <si>
-    <t>265.44€</t>
-  </si>
-  <si>
-    <t>263.52€</t>
-  </si>
-  <si>
-    <t>52.7€</t>
-  </si>
-  <si>
-    <t>318.14€</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
-    <t>8947 Michelle CliffsSpearston, SC 17899</t>
-  </si>
-  <si>
-    <t>2020758259</t>
-  </si>
-  <si>
-    <t>sx889242</t>
+    <t>330.24€</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Wrye</t>
+  </si>
+  <si>
+    <t>7502 Lewis CenterNew Vanessa, MS 35027</t>
+  </si>
+  <si>
+    <t>2020254900</t>
+  </si>
+  <si>
+    <t>sx186244</t>
+  </si>
+  <si>
+    <t>180.24€</t>
+  </si>
+  <si>
+    <t>178.8€</t>
+  </si>
+  <si>
+    <t>35.76€</t>
+  </si>
+  <si>
+    <t>216.0€</t>
+  </si>
+  <si>
+    <t>Fonda</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>58640 Daniel ForksNorth Bobby, WY 79813</t>
+  </si>
+  <si>
+    <t>2020950060</t>
+  </si>
+  <si>
+    <t>sx700619</t>
+  </si>
+  <si>
+    <t>206.72€</t>
+  </si>
+  <si>
+    <t>204.8€</t>
+  </si>
+  <si>
+    <t>40.96€</t>
+  </si>
+  <si>
+    <t>247.68€</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>219 Ramirez CommonNielsenmouth, SC 51069</t>
+  </si>
+  <si>
+    <t>2020791703</t>
+  </si>
+  <si>
+    <t>sx645328</t>
+  </si>
+  <si>
+    <t>198.48€</t>
+  </si>
+  <si>
+    <t>197.04€</t>
+  </si>
+  <si>
+    <t>39.41€</t>
+  </si>
+  <si>
+    <t>237.89€</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Toadvine</t>
+  </si>
+  <si>
+    <t>48874 Allen HollowEast Paul, NE 35389</t>
+  </si>
+  <si>
+    <t>2020337204</t>
+  </si>
+  <si>
+    <t>sx556458</t>
+  </si>
+  <si>
+    <t>212.28€</t>
+  </si>
+  <si>
+    <t>210.84€</t>
+  </si>
+  <si>
+    <t>42.17€</t>
+  </si>
+  <si>
+    <t>254.45€</t>
+  </si>
+  <si>
+    <t>Cedric</t>
+  </si>
+  <si>
+    <t>Figueroa</t>
+  </si>
+  <si>
+    <t>5989 James Springs Suite 776Thomaston, KS 86670</t>
+  </si>
+  <si>
+    <t>2020204601</t>
+  </si>
+  <si>
+    <t>sx769793</t>
+  </si>
+  <si>
+    <t>159.12€</t>
+  </si>
+  <si>
+    <t>156.96€</t>
+  </si>
+  <si>
+    <t>31.39€</t>
+  </si>
+  <si>
+    <t>190.51€</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Overton</t>
+  </si>
+  <si>
+    <t>580 Smith TrailNinaport, ND 74511</t>
+  </si>
+  <si>
+    <t>2020925295</t>
+  </si>
+  <si>
+    <t>sx349370</t>
+  </si>
+  <si>
+    <t>121.8€</t>
+  </si>
+  <si>
+    <t>120.12€</t>
+  </si>
+  <si>
+    <t>24.02€</t>
+  </si>
+  <si>
+    <t>145.82€</t>
+  </si>
+  <si>
+    <t>Hoyle</t>
+  </si>
+  <si>
+    <t>22101 Ballard Trafficway Apt. 409Port Anthony, UT 76874</t>
+  </si>
+  <si>
+    <t>2020591261</t>
+  </si>
+  <si>
+    <t>sx382183</t>
+  </si>
+  <si>
+    <t>287.6€</t>
+  </si>
+  <si>
+    <t>285.2€</t>
+  </si>
+  <si>
+    <t>57.04€</t>
+  </si>
+  <si>
+    <t>344.64€</t>
+  </si>
+  <si>
+    <t>Theresa</t>
+  </si>
+  <si>
+    <t>Langston</t>
+  </si>
+  <si>
+    <t>2502 Buckley Streets Suite 534Port Amberbury, OH 64442</t>
+  </si>
+  <si>
+    <t>2020495708</t>
+  </si>
+  <si>
+    <t>sx45329</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1541,697 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048500"/>
+          <a:ext cx="5524500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thank you for choosing Energy Kft. to supply your home energy.To ensure you getour best service, please keep your contact and account details up - todate. Ifyou need to make any changes, you can do it online with MyAccount at www.energykft.com / myaccount - sme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1942,8 +2909,148 @@
 </table>
 </file>
 
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table25" displayName="Table25" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table26" displayName="Table26" ref="A18:E20" totalsRowShown="0">
+  <autoFilter ref="A18:E20"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Tariff"/>
+    <tableColumn id="3" name="Price kw/h"/>
+    <tableColumn id="4" name="Consumption"/>
+    <tableColumn id="5" name="Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table27" displayName="Table27" ref="A18:E20" totalsRowShown="0">
   <autoFilter ref="A18:E20"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Product"/>
@@ -2466,10 +3573,10 @@
         <v>0.2</v>
       </c>
       <c r="D19">
-        <v>787</v>
+        <v>503</v>
       </c>
       <c r="E19">
-        <v>157.4</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2686,10 +3793,10 @@
         <v>0.12</v>
       </c>
       <c r="D19">
-        <v>1973</v>
+        <v>505</v>
       </c>
       <c r="E19">
-        <v>236.76</v>
+        <v>60.59999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2906,10 +4013,10 @@
         <v>0.14</v>
       </c>
       <c r="D19">
-        <v>1273</v>
+        <v>384</v>
       </c>
       <c r="E19">
-        <v>178.22</v>
+        <v>53.76000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3126,10 +4233,10 @@
         <v>0.18</v>
       </c>
       <c r="D19">
-        <v>384</v>
+        <v>1947</v>
       </c>
       <c r="E19">
-        <v>69.12</v>
+        <v>350.46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3346,10 +4453,10 @@
         <v>0.14</v>
       </c>
       <c r="D19">
-        <v>671</v>
+        <v>1464</v>
       </c>
       <c r="E19">
-        <v>93.94000000000001</v>
+        <v>204.96</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3566,10 +4673,10 @@
         <v>0.16</v>
       </c>
       <c r="D19">
-        <v>261</v>
+        <v>1072</v>
       </c>
       <c r="E19">
-        <v>41.76</v>
+        <v>171.52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3786,10 +4893,10 @@
         <v>0.16</v>
       </c>
       <c r="D19">
-        <v>1742</v>
+        <v>520</v>
       </c>
       <c r="E19">
-        <v>278.72</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4006,10 +5113,10 @@
         <v>0.2</v>
       </c>
       <c r="D19">
-        <v>218</v>
+        <v>1764</v>
       </c>
       <c r="E19">
-        <v>43.6</v>
+        <v>352.8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4226,10 +5333,10 @@
         <v>0.16</v>
       </c>
       <c r="D19">
-        <v>1647</v>
+        <v>1720</v>
       </c>
       <c r="E19">
-        <v>263.52</v>
+        <v>275.2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4287,6 +5394,446 @@
       </c>
       <c r="E25" s="3" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>1820</v>
+      </c>
+      <c r="E19">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.14</v>
+      </c>
+      <c r="D19">
+        <v>229</v>
+      </c>
+      <c r="E19">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.14</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4446,10 +5993,10 @@
         <v>0.16</v>
       </c>
       <c r="D19">
-        <v>1836</v>
+        <v>345</v>
       </c>
       <c r="E19">
-        <v>293.76</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4507,6 +6054,1766 @@
       </c>
       <c r="E25" s="3" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.16</v>
+      </c>
+      <c r="D19">
+        <v>1710</v>
+      </c>
+      <c r="E19">
+        <v>273.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.16</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>1490</v>
+      </c>
+      <c r="E19">
+        <v>178.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.16</v>
+      </c>
+      <c r="D19">
+        <v>1280</v>
+      </c>
+      <c r="E19">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.16</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>1642</v>
+      </c>
+      <c r="E19">
+        <v>197.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <v>1757</v>
+      </c>
+      <c r="E19">
+        <v>210.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.18</v>
+      </c>
+      <c r="D19">
+        <v>872</v>
+      </c>
+      <c r="E19">
+        <v>156.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.14</v>
+      </c>
+      <c r="D19">
+        <v>858</v>
+      </c>
+      <c r="E19">
+        <v>120.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.14</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;LDate: &amp;D&amp;R Energy Kft, Berlin</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>1426</v>
+      </c>
+      <c r="E19">
+        <v>285.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4666,10 +7973,10 @@
         <v>0.16</v>
       </c>
       <c r="D19">
-        <v>541</v>
+        <v>438</v>
       </c>
       <c r="E19">
-        <v>86.56</v>
+        <v>70.08</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4886,10 +8193,10 @@
         <v>0.12</v>
       </c>
       <c r="D19">
-        <v>846</v>
+        <v>509</v>
       </c>
       <c r="E19">
-        <v>101.52</v>
+        <v>61.08</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5106,10 +8413,10 @@
         <v>0.18</v>
       </c>
       <c r="D19">
-        <v>925</v>
+        <v>1343</v>
       </c>
       <c r="E19">
-        <v>166.5</v>
+        <v>241.74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5326,10 +8633,10 @@
         <v>0.18</v>
       </c>
       <c r="D19">
-        <v>1640</v>
+        <v>1476</v>
       </c>
       <c r="E19">
-        <v>295.2</v>
+        <v>265.68</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5546,10 +8853,10 @@
         <v>0.18</v>
       </c>
       <c r="D19">
-        <v>1198</v>
+        <v>1564</v>
       </c>
       <c r="E19">
-        <v>215.64</v>
+        <v>281.52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5766,10 +9073,10 @@
         <v>0.2</v>
       </c>
       <c r="D19">
-        <v>1124</v>
+        <v>1209</v>
       </c>
       <c r="E19">
-        <v>224.8</v>
+        <v>241.8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5986,10 +9293,10 @@
         <v>0.2</v>
       </c>
       <c r="D19">
-        <v>1062</v>
+        <v>1732</v>
       </c>
       <c r="E19">
-        <v>212.4</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
